--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\coding sources\maze_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD96913A-F1F3-45D8-938B-24D9545E20E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7678974A-0BE8-471A-B191-980C1DB40ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58C819EE-ACB9-40FA-A805-9FCD799947E1}"/>
   </bookViews>
@@ -34,12 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Average Fitness</t>
   </si>
   <si>
     <t>Best Fitness</t>
+  </si>
+  <si>
+    <t>150 generations</t>
+  </si>
+  <si>
+    <t>mutation_rate = 0.05</t>
+  </si>
+  <si>
+    <t>mutation_rate = 0.01</t>
   </si>
 </sst>
 </file>
@@ -1364,6 +1373,3711 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$63:$A$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>2.3646299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1042299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.80191E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7074800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8387000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8615200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8674300000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.119378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.114234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.116063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13386200000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.113492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.136182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.119231</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12307700000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.138461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12692300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.107692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.130769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.107692</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.111538</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.119231</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.138461</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.111538</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12307700000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.119231</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12023399999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.137291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.118994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21240899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14103299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.186667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.193333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.208095</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.229048</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.20714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.171429</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.22142899999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.26428600000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12857099999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22142899999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.228571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.271428</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.25714300000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.171429</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.18571399999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.271428</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.24285699999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.25714300000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.25714300000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.20714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.228571</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.25714300000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.18571399999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.25714300000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.18571399999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.228571</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.20714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.22142899999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.18571399999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.23571400000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.228571</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.192857</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.20714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.24285699999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.16428599999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24285699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18571399999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26428600000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.25164799999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.29230800000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.19505500000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.223077</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23846100000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.29615399999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.27179500000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.282051</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.29166700000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.25833299999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.216667</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.341667</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.26666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.29166700000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.31666699999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.283333</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.24166699999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.183333</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.26666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.283333</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.26666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.23333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.24166699999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.31666699999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.26666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.31666699999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.24166699999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.20833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.25833299999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.23333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.26666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.23333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.158333</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.20833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.29166700000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.216667</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.25833299999999998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.20833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.30833300000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.25833299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B81D-45FA-AB6B-0F423D76DBBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$B$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.129777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14227899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.178119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29411799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29411799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29411799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34482800000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34482800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37036999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37036999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37036999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.43478299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43478299999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.43478299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.769231</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.769231</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.769231</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.769231</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.769231</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B81D-45FA-AB6B-0F423D76DBBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="795883872"/>
+        <c:axId val="795891776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="795883872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795891776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795891776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795883872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$63:$N$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>2.6424300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2841200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9660999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6127700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3726900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2625500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8412700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.111765</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1138600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.106458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9616899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.103226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.112903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.103226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.109677</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6774200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.106452</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3548400000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7419399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7096800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7741899999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5376299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3333299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.6666699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.123333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.3333299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.6666699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.13666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.126667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.6666699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.13333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.6666700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.6666699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.3333300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.3333299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.3333299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.3333299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.3333299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.13666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.13333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.11666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.6666699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.6666699999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.113333</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.123333</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.10333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.106667</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.3333299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEC6-4516-9775-B0499EBBB018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$63:$O$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.114638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18817500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25641000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.263158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28571400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28571400000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29411799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32258100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEC6-4516-9775-B0499EBBB018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="897013040"/>
+        <c:axId val="897006800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="897013040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897006800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="897006800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897013040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$215</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$216:$A$365</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>2.9391199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1069300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3532400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0356899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0549299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3121800000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.114674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.122268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.138768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13858699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.132213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.166403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.100909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16620099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15973699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18421100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16842099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16842099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17368400000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17368400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16842099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13684199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15789500000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19473699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15263199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17368400000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21578900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17894699999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.131579</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15789500000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15263199999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15789500000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16461999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.204094</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17941199999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18790799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18202599999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.123529</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.235294</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16470599999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15882299999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.129412</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.22352900000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.21176500000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.129412</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17058799999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.17058799999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.123529</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21764700000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.15882299999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.21764700000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.15882299999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.17058799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.21764700000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.15882299999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.21176500000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.21176500000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.16470599999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.117647</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.22352900000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.147059</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.17058799999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.16470599999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.21764700000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.15294099999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.19411800000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.18235299999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.16470599999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.17058799999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.123529</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.22352900000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.135294</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.18823500000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.135294</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.17647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.229412</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.229412</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.15882299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF57-4CCB-BB37-51C7A17B1471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$215</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$216:$B$365</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.12649299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.263158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.263158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30303000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30303000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34482800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43478299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43478299999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45454499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45454499999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55555600000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55555600000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF57-4CCB-BB37-51C7A17B1471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1021253632"/>
+        <c:axId val="1021264448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1021253632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021264448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1021264448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021253632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1444,6 +5158,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1961,6 +5795,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2545,6 +7927,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDB91A7-F936-4634-8781-624F992C3C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903696BB-36CD-4AF9-A41E-EA1BE16C54FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D38C5EB-5954-4FF9-8F6C-85E49CB71CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2850,10 +8340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1644E21-279B-4AFC-8C6E-D457BBD5B943}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:Q365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="P223" sqref="P223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3530,7 +9020,7 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.140151</v>
       </c>
@@ -3544,7 +9034,7 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.118182</v>
       </c>
@@ -3558,7 +9048,7 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.14090900000000001</v>
       </c>
@@ -3570,6 +9060,3339 @@
       </c>
       <c r="N51">
         <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2.3646299999999999E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.129777</v>
+      </c>
+      <c r="N63">
+        <v>2.6424300000000001E-2</v>
+      </c>
+      <c r="O63">
+        <v>0.114638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4.1042299999999997E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.14227899999999999</v>
+      </c>
+      <c r="N64">
+        <v>4.2841200000000003E-2</v>
+      </c>
+      <c r="O64">
+        <v>0.18817500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.80191E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.178119</v>
+      </c>
+      <c r="N65">
+        <v>4.9660999999999997E-2</v>
+      </c>
+      <c r="O65">
+        <v>0.25641000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5.7074800000000002E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="N66">
+        <v>7.6127700000000006E-2</v>
+      </c>
+      <c r="O66">
+        <v>0.263158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5.8387000000000001E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="N67">
+        <v>6.3726900000000003E-2</v>
+      </c>
+      <c r="O67">
+        <v>0.27027000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8.8615200000000005E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.29411799999999999</v>
+      </c>
+      <c r="N68">
+        <v>6.2625500000000001E-2</v>
+      </c>
+      <c r="O68">
+        <v>0.28571400000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>9.8674300000000006E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.3125</v>
+      </c>
+      <c r="N69">
+        <v>9.8412700000000006E-2</v>
+      </c>
+      <c r="O69">
+        <v>0.28571400000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.119378</v>
+      </c>
+      <c r="B70">
+        <v>0.34482800000000002</v>
+      </c>
+      <c r="N70">
+        <v>0.111765</v>
+      </c>
+      <c r="O70">
+        <v>0.29411799999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.114234</v>
+      </c>
+      <c r="B71">
+        <v>0.34482800000000002</v>
+      </c>
+      <c r="N71">
+        <v>8.1138600000000005E-2</v>
+      </c>
+      <c r="O71">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.116063</v>
+      </c>
+      <c r="B72">
+        <v>0.37036999999999998</v>
+      </c>
+      <c r="N72">
+        <v>0.106458</v>
+      </c>
+      <c r="O72">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.13386200000000001</v>
+      </c>
+      <c r="B73">
+        <v>0.37036999999999998</v>
+      </c>
+      <c r="N73">
+        <v>8.9616899999999999E-2</v>
+      </c>
+      <c r="O73">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.113492</v>
+      </c>
+      <c r="B74">
+        <v>0.37036999999999998</v>
+      </c>
+      <c r="N74">
+        <v>0.103226</v>
+      </c>
+      <c r="O74">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.119088</v>
+      </c>
+      <c r="B75">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N75">
+        <v>0.112903</v>
+      </c>
+      <c r="O75">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.136182</v>
+      </c>
+      <c r="B76">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N76">
+        <v>0.103226</v>
+      </c>
+      <c r="O76">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.119231</v>
+      </c>
+      <c r="B77">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N77">
+        <v>0.109677</v>
+      </c>
+      <c r="O77">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.12307700000000001</v>
+      </c>
+      <c r="B78">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N78">
+        <v>9.6774200000000005E-2</v>
+      </c>
+      <c r="O78">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.138461</v>
+      </c>
+      <c r="B79">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N79">
+        <v>0.106452</v>
+      </c>
+      <c r="O79">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.12692300000000001</v>
+      </c>
+      <c r="B80">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N80">
+        <v>9.3548400000000004E-2</v>
+      </c>
+      <c r="O80">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.107692</v>
+      </c>
+      <c r="B81">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N81">
+        <v>7.7419399999999999E-2</v>
+      </c>
+      <c r="O81">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.130769</v>
+      </c>
+      <c r="B82">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N82">
+        <v>8.7096800000000002E-2</v>
+      </c>
+      <c r="O82">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.10384599999999999</v>
+      </c>
+      <c r="B83">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N83">
+        <v>0.1</v>
+      </c>
+      <c r="O83">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.107692</v>
+      </c>
+      <c r="B84">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N84">
+        <v>6.7741899999999994E-2</v>
+      </c>
+      <c r="O84">
+        <v>0.32258100000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.111538</v>
+      </c>
+      <c r="B85">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N85">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.119231</v>
+      </c>
+      <c r="B86">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N86">
+        <v>9.5376299999999997E-2</v>
+      </c>
+      <c r="O86">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.138461</v>
+      </c>
+      <c r="B87">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O87">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.1</v>
+      </c>
+      <c r="B88">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N88">
+        <v>0.09</v>
+      </c>
+      <c r="O88">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.111538</v>
+      </c>
+      <c r="B89">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N89">
+        <v>0.1</v>
+      </c>
+      <c r="O89">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.12307700000000001</v>
+      </c>
+      <c r="B90">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N90">
+        <v>0.106667</v>
+      </c>
+      <c r="O90">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.119231</v>
+      </c>
+      <c r="B91">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="N91">
+        <v>0.113333</v>
+      </c>
+      <c r="O91">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.12023399999999999</v>
+      </c>
+      <c r="B92">
+        <v>0.43478299999999998</v>
+      </c>
+      <c r="N92">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O92">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.137291</v>
+      </c>
+      <c r="B93">
+        <v>0.43478299999999998</v>
+      </c>
+      <c r="N93">
+        <v>0.113333</v>
+      </c>
+      <c r="O93">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.118994</v>
+      </c>
+      <c r="B94">
+        <v>0.43478299999999998</v>
+      </c>
+      <c r="N94">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O94">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.21240899999999999</v>
+      </c>
+      <c r="B95">
+        <v>0.625</v>
+      </c>
+      <c r="N95">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O95">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.14103299999999999</v>
+      </c>
+      <c r="B96">
+        <v>0.625</v>
+      </c>
+      <c r="N96">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O96">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.625</v>
+      </c>
+      <c r="N97">
+        <v>0.12</v>
+      </c>
+      <c r="O97">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.23</v>
+      </c>
+      <c r="B98">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N98">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O98">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.19833300000000001</v>
+      </c>
+      <c r="B99">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N99">
+        <v>9.3333299999999994E-2</v>
+      </c>
+      <c r="O99">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.24</v>
+      </c>
+      <c r="B100">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N100">
+        <v>0.13666700000000001</v>
+      </c>
+      <c r="O100">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.186667</v>
+      </c>
+      <c r="B101">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N101">
+        <v>0.1</v>
+      </c>
+      <c r="O101">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.21333299999999999</v>
+      </c>
+      <c r="B102">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N102">
+        <v>0.1</v>
+      </c>
+      <c r="O102">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="B103">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N103">
+        <v>0.1</v>
+      </c>
+      <c r="O103">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.193333</v>
+      </c>
+      <c r="B104">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N104">
+        <v>0.113333</v>
+      </c>
+      <c r="O104">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.208095</v>
+      </c>
+      <c r="B105">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N105">
+        <v>0.12</v>
+      </c>
+      <c r="O105">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.229048</v>
+      </c>
+      <c r="B106">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N106">
+        <v>0.13666700000000001</v>
+      </c>
+      <c r="O106">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.21333299999999999</v>
+      </c>
+      <c r="B107">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N107">
+        <v>0.1</v>
+      </c>
+      <c r="O107">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B108">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N108">
+        <v>0.113333</v>
+      </c>
+      <c r="O108">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.25</v>
+      </c>
+      <c r="B109">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N109">
+        <v>0.11</v>
+      </c>
+      <c r="O109">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.20714299999999999</v>
+      </c>
+      <c r="B110">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N110">
+        <v>8.6666699999999999E-2</v>
+      </c>
+      <c r="O110">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B111">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N111">
+        <v>0.14666699999999999</v>
+      </c>
+      <c r="O111">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.25</v>
+      </c>
+      <c r="B112">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N112">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O112">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B113">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N113">
+        <v>0.09</v>
+      </c>
+      <c r="O113">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.171429</v>
+      </c>
+      <c r="B114">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N114">
+        <v>0.106667</v>
+      </c>
+      <c r="O114">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B115">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N115">
+        <v>0.123333</v>
+      </c>
+      <c r="O115">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.22142899999999999</v>
+      </c>
+      <c r="B116">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N116">
+        <v>9.3333299999999994E-2</v>
+      </c>
+      <c r="O116">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.2</v>
+      </c>
+      <c r="B117">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N117">
+        <v>0.11</v>
+      </c>
+      <c r="O117">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.26428600000000002</v>
+      </c>
+      <c r="B118">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N118">
+        <v>8.6666699999999999E-2</v>
+      </c>
+      <c r="O118">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.12857099999999999</v>
+      </c>
+      <c r="B119">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N119">
+        <v>0.13</v>
+      </c>
+      <c r="O119">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.3</v>
+      </c>
+      <c r="B120">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N120">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O120">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B121">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N121">
+        <v>0.08</v>
+      </c>
+      <c r="O121">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B122">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N122">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O122">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.22142899999999999</v>
+      </c>
+      <c r="B123">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N123">
+        <v>0.106667</v>
+      </c>
+      <c r="O123">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0.2</v>
+      </c>
+      <c r="B124">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N124">
+        <v>0.12</v>
+      </c>
+      <c r="O124">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0.25</v>
+      </c>
+      <c r="B125">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N125">
+        <v>0.09</v>
+      </c>
+      <c r="O125">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0.228571</v>
+      </c>
+      <c r="B126">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N126">
+        <v>0.11</v>
+      </c>
+      <c r="O126">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0.271428</v>
+      </c>
+      <c r="B127">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N127">
+        <v>0.1</v>
+      </c>
+      <c r="O127">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0.25714300000000001</v>
+      </c>
+      <c r="B128">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N128">
+        <v>0.113333</v>
+      </c>
+      <c r="O128">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.171429</v>
+      </c>
+      <c r="B129">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N129">
+        <v>0.13666700000000001</v>
+      </c>
+      <c r="O129">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.18571399999999999</v>
+      </c>
+      <c r="B130">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N130">
+        <v>0.126667</v>
+      </c>
+      <c r="O130">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0.271428</v>
+      </c>
+      <c r="B131">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N131">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O131">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.24285699999999999</v>
+      </c>
+      <c r="B132">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N132">
+        <v>0.1</v>
+      </c>
+      <c r="O132">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0.25714300000000001</v>
+      </c>
+      <c r="B133">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N133">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O133">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.25714300000000001</v>
+      </c>
+      <c r="B134">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N134">
+        <v>0.106667</v>
+      </c>
+      <c r="O134">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.20714299999999999</v>
+      </c>
+      <c r="B135">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N135">
+        <v>8.6666699999999999E-2</v>
+      </c>
+      <c r="O135">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.228571</v>
+      </c>
+      <c r="B136">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N136">
+        <v>0.106667</v>
+      </c>
+      <c r="O136">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.25714300000000001</v>
+      </c>
+      <c r="B137">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N137">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O137">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.18571399999999999</v>
+      </c>
+      <c r="B138">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N138">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O138">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.25714300000000001</v>
+      </c>
+      <c r="B139">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N139">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O139">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.18571399999999999</v>
+      </c>
+      <c r="B140">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N140">
+        <v>0.12</v>
+      </c>
+      <c r="O140">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0.228571</v>
+      </c>
+      <c r="B141">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N141">
+        <v>0.1</v>
+      </c>
+      <c r="O141">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.20714299999999999</v>
+      </c>
+      <c r="B142">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N142">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O142">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.22142899999999999</v>
+      </c>
+      <c r="B143">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N143">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O143">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.18571399999999999</v>
+      </c>
+      <c r="B144">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N144">
+        <v>0.08</v>
+      </c>
+      <c r="O144">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.25</v>
+      </c>
+      <c r="B145">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N145">
+        <v>0.113333</v>
+      </c>
+      <c r="O145">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.23571400000000001</v>
+      </c>
+      <c r="B146">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N146">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O146">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0.2</v>
+      </c>
+      <c r="B147">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N147">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O147">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0.228571</v>
+      </c>
+      <c r="B148">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N148">
+        <v>0.09</v>
+      </c>
+      <c r="O148">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0.192857</v>
+      </c>
+      <c r="B149">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N149">
+        <v>0.1</v>
+      </c>
+      <c r="O149">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0.20714299999999999</v>
+      </c>
+      <c r="B150">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N150">
+        <v>0.08</v>
+      </c>
+      <c r="O150">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>0.25</v>
+      </c>
+      <c r="B151">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N151">
+        <v>0.1</v>
+      </c>
+      <c r="O151">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0.24285699999999999</v>
+      </c>
+      <c r="B152">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N152">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O152">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0.16428599999999999</v>
+      </c>
+      <c r="B153">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N153">
+        <v>0.1</v>
+      </c>
+      <c r="O153">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0.24285699999999999</v>
+      </c>
+      <c r="B154">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N154">
+        <v>0.1</v>
+      </c>
+      <c r="O154">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0.18571399999999999</v>
+      </c>
+      <c r="B155">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N155">
+        <v>0.13</v>
+      </c>
+      <c r="O155">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0.26428600000000002</v>
+      </c>
+      <c r="B156">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="N156">
+        <v>0.13333300000000001</v>
+      </c>
+      <c r="O156">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0.25164799999999998</v>
+      </c>
+      <c r="B157">
+        <v>0.769231</v>
+      </c>
+      <c r="N157">
+        <v>0.1</v>
+      </c>
+      <c r="O157">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>0.29230800000000001</v>
+      </c>
+      <c r="B158">
+        <v>0.769231</v>
+      </c>
+      <c r="N158">
+        <v>0.1</v>
+      </c>
+      <c r="O158">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>0.19505500000000001</v>
+      </c>
+      <c r="B159">
+        <v>0.769231</v>
+      </c>
+      <c r="N159">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O159">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>0.223077</v>
+      </c>
+      <c r="B160">
+        <v>0.769231</v>
+      </c>
+      <c r="N160">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O160">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0.23846100000000001</v>
+      </c>
+      <c r="B161">
+        <v>0.769231</v>
+      </c>
+      <c r="N161">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O161">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>0.29615399999999997</v>
+      </c>
+      <c r="B162">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N162">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O162">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0.27179500000000001</v>
+      </c>
+      <c r="B163">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N163">
+        <v>0.11</v>
+      </c>
+      <c r="O163">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>0.282051</v>
+      </c>
+      <c r="B164">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N164">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O164">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0.29166700000000001</v>
+      </c>
+      <c r="B165">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N165">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O165">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="B166">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N166">
+        <v>0.113333</v>
+      </c>
+      <c r="O166">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>0.25833299999999998</v>
+      </c>
+      <c r="B167">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N167">
+        <v>7.6666700000000004E-2</v>
+      </c>
+      <c r="O167">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>0.25</v>
+      </c>
+      <c r="B168">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N168">
+        <v>0.106667</v>
+      </c>
+      <c r="O168">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.216667</v>
+      </c>
+      <c r="B169">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N169">
+        <v>0.11</v>
+      </c>
+      <c r="O169">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0.341667</v>
+      </c>
+      <c r="B170">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N170">
+        <v>0.13</v>
+      </c>
+      <c r="O170">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>0.26666699999999999</v>
+      </c>
+      <c r="B171">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N171">
+        <v>8.6666699999999999E-2</v>
+      </c>
+      <c r="O171">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>0.29166700000000001</v>
+      </c>
+      <c r="B172">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N172">
+        <v>0.11</v>
+      </c>
+      <c r="O172">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>0.31666699999999998</v>
+      </c>
+      <c r="B173">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N173">
+        <v>7.3333300000000004E-2</v>
+      </c>
+      <c r="O173">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>0.283333</v>
+      </c>
+      <c r="B174">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N174">
+        <v>0.113333</v>
+      </c>
+      <c r="O174">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0.24166699999999999</v>
+      </c>
+      <c r="B175">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N175">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O175">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B176">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N176">
+        <v>0.1</v>
+      </c>
+      <c r="O176">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0.183333</v>
+      </c>
+      <c r="B177">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N177">
+        <v>9.3333299999999994E-2</v>
+      </c>
+      <c r="O177">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B178">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N178">
+        <v>9.3333299999999994E-2</v>
+      </c>
+      <c r="O178">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0.26666699999999999</v>
+      </c>
+      <c r="B179">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N179">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O179">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0.283333</v>
+      </c>
+      <c r="B180">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N180">
+        <v>0.12</v>
+      </c>
+      <c r="O180">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0.26666699999999999</v>
+      </c>
+      <c r="B181">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N181">
+        <v>9.3333299999999994E-2</v>
+      </c>
+      <c r="O181">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>0.23333300000000001</v>
+      </c>
+      <c r="B182">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N182">
+        <v>0.1</v>
+      </c>
+      <c r="O182">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>0.24166699999999999</v>
+      </c>
+      <c r="B183">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N183">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O183">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.31666699999999998</v>
+      </c>
+      <c r="B184">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N184">
+        <v>0.106667</v>
+      </c>
+      <c r="O184">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>0.25</v>
+      </c>
+      <c r="B185">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N185">
+        <v>9.3333299999999994E-2</v>
+      </c>
+      <c r="O185">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>0.26666699999999999</v>
+      </c>
+      <c r="B186">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N186">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O186">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>0.3</v>
+      </c>
+      <c r="B187">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N187">
+        <v>0.13666700000000001</v>
+      </c>
+      <c r="O187">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>0.31666699999999998</v>
+      </c>
+      <c r="B188">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N188">
+        <v>0.113333</v>
+      </c>
+      <c r="O188">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B189">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N189">
+        <v>0.106667</v>
+      </c>
+      <c r="O189">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>0.24166699999999999</v>
+      </c>
+      <c r="B190">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N190">
+        <v>0.1</v>
+      </c>
+      <c r="O190">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>0.20833299999999999</v>
+      </c>
+      <c r="B191">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N191">
+        <v>0.1</v>
+      </c>
+      <c r="O191">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>0.25833299999999998</v>
+      </c>
+      <c r="B192">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N192">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O192">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>0.2</v>
+      </c>
+      <c r="B193">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N193">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O193">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B194">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N194">
+        <v>0.106667</v>
+      </c>
+      <c r="O194">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>0.23333300000000001</v>
+      </c>
+      <c r="B195">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N195">
+        <v>0.113333</v>
+      </c>
+      <c r="O195">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>0.25</v>
+      </c>
+      <c r="B196">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N196">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O196">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0.26666699999999999</v>
+      </c>
+      <c r="B197">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N197">
+        <v>0.12</v>
+      </c>
+      <c r="O197">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>0.23333300000000001</v>
+      </c>
+      <c r="B198">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N198">
+        <v>0.13333300000000001</v>
+      </c>
+      <c r="O198">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B199">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N199">
+        <v>0.11666700000000001</v>
+      </c>
+      <c r="O199">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0.158333</v>
+      </c>
+      <c r="B200">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N200">
+        <v>0.106667</v>
+      </c>
+      <c r="O200">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0.20833299999999999</v>
+      </c>
+      <c r="B201">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N201">
+        <v>9.6666699999999994E-2</v>
+      </c>
+      <c r="O201">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0.29166700000000001</v>
+      </c>
+      <c r="B202">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N202">
+        <v>0.106667</v>
+      </c>
+      <c r="O202">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0.216667</v>
+      </c>
+      <c r="B203">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N203">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O203">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B204">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N204">
+        <v>6.6666699999999995E-2</v>
+      </c>
+      <c r="O204">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B205">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N205">
+        <v>0.113333</v>
+      </c>
+      <c r="O205">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0.25833299999999998</v>
+      </c>
+      <c r="B206">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N206">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O206">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0.20833299999999999</v>
+      </c>
+      <c r="B207">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N207">
+        <v>0.123333</v>
+      </c>
+      <c r="O207">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0.3</v>
+      </c>
+      <c r="B208">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N208">
+        <v>0.10333299999999999</v>
+      </c>
+      <c r="O208">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B209">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N209">
+        <v>0.09</v>
+      </c>
+      <c r="O209">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>0.30833300000000002</v>
+      </c>
+      <c r="B210">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N210">
+        <v>0.106667</v>
+      </c>
+      <c r="O210">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B211">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N211">
+        <v>8.3333299999999999E-2</v>
+      </c>
+      <c r="O211">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>0.25833299999999998</v>
+      </c>
+      <c r="B212">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="N212">
+        <v>0.11</v>
+      </c>
+      <c r="O212">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2.9391199999999999E-2</v>
+      </c>
+      <c r="B216">
+        <v>0.12649299999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4.1069300000000003E-2</v>
+      </c>
+      <c r="B217">
+        <v>0.263158</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>5.3532400000000001E-2</v>
+      </c>
+      <c r="B218">
+        <v>0.263158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>8.0356899999999995E-2</v>
+      </c>
+      <c r="B219">
+        <v>0.30303000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>7.0549299999999995E-2</v>
+      </c>
+      <c r="B220">
+        <v>0.30303000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>0.10591</v>
+      </c>
+      <c r="B221">
+        <v>0.34482800000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>9.3121800000000005E-2</v>
+      </c>
+      <c r="B222">
+        <v>0.35714299999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>0.114674</v>
+      </c>
+      <c r="B223">
+        <v>0.38461499999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>0.122268</v>
+      </c>
+      <c r="B224">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>0.14591000000000001</v>
+      </c>
+      <c r="B225">
+        <v>0.41666700000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>0.14666699999999999</v>
+      </c>
+      <c r="B226">
+        <v>0.41666700000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>0.138768</v>
+      </c>
+      <c r="B227">
+        <v>0.43478299999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>0.13858699999999999</v>
+      </c>
+      <c r="B228">
+        <v>0.43478299999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>0.132213</v>
+      </c>
+      <c r="B229">
+        <v>0.45454499999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>0.166403</v>
+      </c>
+      <c r="B230">
+        <v>0.45454499999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>0.100909</v>
+      </c>
+      <c r="B231">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>0.16620099999999999</v>
+      </c>
+      <c r="B232">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>0.15973699999999999</v>
+      </c>
+      <c r="B233">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>0.18421100000000001</v>
+      </c>
+      <c r="B234">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>0.16842099999999999</v>
+      </c>
+      <c r="B235">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>0.16842099999999999</v>
+      </c>
+      <c r="B236">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>0.17368400000000001</v>
+      </c>
+      <c r="B237">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>0.17368400000000001</v>
+      </c>
+      <c r="B238">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>0.16842099999999999</v>
+      </c>
+      <c r="B239">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>0.13684199999999999</v>
+      </c>
+      <c r="B240">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>0.12631600000000001</v>
+      </c>
+      <c r="B241">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>0.15789500000000001</v>
+      </c>
+      <c r="B242">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>0.19473699999999999</v>
+      </c>
+      <c r="B243">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0.15263199999999999</v>
+      </c>
+      <c r="B244">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>0.17368400000000001</v>
+      </c>
+      <c r="B245">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>0.21578900000000001</v>
+      </c>
+      <c r="B246">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0.17894699999999999</v>
+      </c>
+      <c r="B247">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>0.131579</v>
+      </c>
+      <c r="B248">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>0.15789500000000001</v>
+      </c>
+      <c r="B249">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0.15263199999999999</v>
+      </c>
+      <c r="B250">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>0.15789500000000001</v>
+      </c>
+      <c r="B251">
+        <v>0.52631600000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>0.16461999999999999</v>
+      </c>
+      <c r="B252">
+        <v>0.55555600000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>0.204094</v>
+      </c>
+      <c r="B253">
+        <v>0.55555600000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0.17941199999999999</v>
+      </c>
+      <c r="B254">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0.18790799999999999</v>
+      </c>
+      <c r="B255">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0.18202599999999999</v>
+      </c>
+      <c r="B256">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B257">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0.2</v>
+      </c>
+      <c r="B258">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B259">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>0.123529</v>
+      </c>
+      <c r="B260">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0.235294</v>
+      </c>
+      <c r="B261">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>0.2</v>
+      </c>
+      <c r="B262">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>0.147059</v>
+      </c>
+      <c r="B263">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B264">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B265">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B266">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>0.16470599999999999</v>
+      </c>
+      <c r="B267">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0.15882299999999999</v>
+      </c>
+      <c r="B268">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0.129412</v>
+      </c>
+      <c r="B269">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B270">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B271">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0.22352900000000001</v>
+      </c>
+      <c r="B272">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0.21176500000000001</v>
+      </c>
+      <c r="B273">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B274">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0.147059</v>
+      </c>
+      <c r="B275">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0.129412</v>
+      </c>
+      <c r="B276">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B277">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0.147059</v>
+      </c>
+      <c r="B278">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0.17058799999999999</v>
+      </c>
+      <c r="B279">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B280">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B281">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0.17058799999999999</v>
+      </c>
+      <c r="B282">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B283">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B284">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B285">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0.123529</v>
+      </c>
+      <c r="B286">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B287">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0.21764700000000001</v>
+      </c>
+      <c r="B288">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B289">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0.15882299999999999</v>
+      </c>
+      <c r="B290">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0.21764700000000001</v>
+      </c>
+      <c r="B291">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B292">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B293">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0.15882299999999999</v>
+      </c>
+      <c r="B294">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B295">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B296">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B297">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B298">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B299">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0.17058799999999999</v>
+      </c>
+      <c r="B300">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0.21764700000000001</v>
+      </c>
+      <c r="B301">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0.15882299999999999</v>
+      </c>
+      <c r="B302">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0.21176500000000001</v>
+      </c>
+      <c r="B303">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B304">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B305">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0.147059</v>
+      </c>
+      <c r="B306">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B307">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B308">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B309">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B310">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B311">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0.21176500000000001</v>
+      </c>
+      <c r="B312">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>0.147059</v>
+      </c>
+      <c r="B313">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0.16470599999999999</v>
+      </c>
+      <c r="B314">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0.147059</v>
+      </c>
+      <c r="B315">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0.2</v>
+      </c>
+      <c r="B316">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0.117647</v>
+      </c>
+      <c r="B317">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B318">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B319">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0.22352900000000001</v>
+      </c>
+      <c r="B320">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0.147059</v>
+      </c>
+      <c r="B321">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B322">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B323">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0.147059</v>
+      </c>
+      <c r="B324">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0.17058799999999999</v>
+      </c>
+      <c r="B325">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0.2</v>
+      </c>
+      <c r="B326">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0.2</v>
+      </c>
+      <c r="B327">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0.16470599999999999</v>
+      </c>
+      <c r="B328">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B329">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B330">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B331">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B332">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B333">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B334">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0.2</v>
+      </c>
+      <c r="B335">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B336">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B337">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0.21764700000000001</v>
+      </c>
+      <c r="B338">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0.15294099999999999</v>
+      </c>
+      <c r="B339">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B340">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="B341">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>0.18235299999999999</v>
+      </c>
+      <c r="B342">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0.16470599999999999</v>
+      </c>
+      <c r="B343">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0.2</v>
+      </c>
+      <c r="B344">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0.17058799999999999</v>
+      </c>
+      <c r="B345">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0.2</v>
+      </c>
+      <c r="B346">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B347">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0.2</v>
+      </c>
+      <c r="B348">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B349">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B350">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B351">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0.123529</v>
+      </c>
+      <c r="B352">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B353">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0.22352900000000001</v>
+      </c>
+      <c r="B354">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0.2</v>
+      </c>
+      <c r="B355">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0.135294</v>
+      </c>
+      <c r="B356">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0.18823500000000001</v>
+      </c>
+      <c r="B357">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0.135294</v>
+      </c>
+      <c r="B358">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B359">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0.17647099999999999</v>
+      </c>
+      <c r="B360">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0.229412</v>
+      </c>
+      <c r="B361">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0.229412</v>
+      </c>
+      <c r="B362">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="B363">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0.2</v>
+      </c>
+      <c r="B364">
+        <v>0.58823499999999995</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0.15882299999999999</v>
+      </c>
+      <c r="B365">
+        <v>0.58823499999999995</v>
       </c>
     </row>
   </sheetData>
